--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2146.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2146.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.601021752241067</v>
+        <v>0.6952002048492432</v>
       </c>
       <c r="B1">
-        <v>3.286417197946927</v>
+        <v>1.514212489128113</v>
       </c>
       <c r="C1">
-        <v>3.060341827050589</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.9756811584692145</v>
+        <v>2.002576112747192</v>
       </c>
       <c r="E1">
-        <v>0.6001793098983838</v>
+        <v>1.257044434547424</v>
       </c>
     </row>
   </sheetData>
